--- a/docs/odh/shr-core-AppointmentParticipation-model.xlsx
+++ b/docs/odh/shr-core-AppointmentParticipation-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="61">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,20 @@
     <t>Participants involved in appointment</t>
   </si>
   <si>
+    <t>shr-core-AppointmentParticipation-model.appointmentParticipant[x]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model]]}
+</t>
+  </si>
+  <si>
+    <t>A choice of Person (in any role) or Organization, Device or Location as participants.</t>
+  </si>
+  <si>
     <t>shr-core-AppointmentParticipation-model.participationType</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
@@ -156,18 +166,24 @@
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
+    <t>shr-core-AppointmentParticipation-model.participationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-AppointmentParticipation-model.appointmentParticipant[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
+    <t>The point in time or span of time the participant is involved.</t>
+  </si>
+  <si>
+    <t>shr-core-AppointmentParticipation-model.onBehalfOf[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
-    <t>A choice of Person (in any role) or Organization, Device or Location as participants.</t>
+    <t>The party represented by the actual participant.</t>
   </si>
   <si>
     <t>shr-core-AppointmentParticipation-model.need</t>
@@ -334,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -368,7 +384,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -592,10 +608,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>36</v>
@@ -640,14 +656,16 @@
         <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X3" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>36</v>
@@ -665,10 +683,10 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>36</v>
@@ -679,7 +697,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -687,7 +705,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>41</v>
@@ -702,13 +720,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -735,13 +753,11 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -759,10 +775,10 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>41</v>
@@ -776,7 +792,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -787,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>36</v>
@@ -799,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>51</v>
@@ -832,11 +848,13 @@
         <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y5" t="s" s="2">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
         <v>36</v>
@@ -854,13 +872,13 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>36</v>
@@ -871,7 +889,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -879,10 +897,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -894,7 +912,7 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>54</v>
@@ -927,45 +945,237 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X6" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AF6" t="s" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG6" t="s" s="2">
+      <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI6" t="s" s="2">
+      <c r="AH7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI6">
+  <autoFilter ref="A1:AI8">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -975,7 +1185,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
